--- a/artfynd/A 13237-2023.xlsx
+++ b/artfynd/A 13237-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1619901</v>
+        <v>67725248</v>
       </c>
       <c r="B2" t="n">
         <v>89412</v>
@@ -714,19 +714,25 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
+          <t>Färjestaden, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>656935.9516979057</v>
+        <v>656881.9669087592</v>
       </c>
       <c r="R2" t="n">
-        <v>6585461.771711471</v>
+        <v>6585481.976062094</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +756,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +766,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -770,7 +776,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>100872061 / PHE PINI / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
+          <t>Fruktkropp växande på tallstam</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -779,32 +785,43 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Vedartad växt</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Woody plant</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Niklas Lönnell</t>
+          <t>David Åhlén</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>David Åhlén, daniela guasconi</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Skogsstyrelsens naturvärdesobjekt</t>
+          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4977200</v>
+        <v>67725234</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>89412</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,41 +830,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
+          <t>Färjestaden, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>656935.9516979057</v>
+        <v>656785.5898451819</v>
       </c>
       <c r="R3" t="n">
-        <v>6585461.771711471</v>
+        <v>6585464.713498709</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -871,7 +894,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -881,7 +904,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,7 +914,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>100872061 / HEPA NOB / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
+          <t>Flera fruktkroppar växande på tallstam</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -900,32 +923,43 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Vedartad växt</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Woody plant</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Niklas Lönnell</t>
+          <t>David Åhlén</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>David Åhlén, daniela guasconi</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Skogsstyrelsens naturvärdesobjekt</t>
+          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67725248</v>
+        <v>67724289</v>
       </c>
       <c r="B4" t="n">
-        <v>89412</v>
+        <v>4717</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,44 +968,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>102306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Färjestaden, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>656881.9669087592</v>
+        <v>656838.9521214096</v>
       </c>
       <c r="R4" t="n">
-        <v>6585481.976062094</v>
+        <v>6585508.757694784</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,7 +1055,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Fruktkropp växande på tallstam</t>
+          <t>Gnagspår i barken på gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,18 +1064,17 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Vedartad växt</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Woody plant</t>
+          <t>Bark on living woody plant</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1060,7 +1096,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67725234</v>
+        <v>1619901</v>
       </c>
       <c r="B5" t="n">
         <v>89412</v>
@@ -1094,25 +1130,19 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Färjestaden, Upl</t>
+          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>656785.5898451819</v>
+        <v>656935.9516979057</v>
       </c>
       <c r="R5" t="n">
-        <v>6585464.713498709</v>
+        <v>6585461.771711471</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1136,7 +1166,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1146,7 +1176,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1156,7 +1186,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar växande på tallstam</t>
+          <t>100872061 / PHE PINI / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1165,43 +1195,32 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Vedartad växt</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Woody plant</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>David Åhlén</t>
+          <t>Niklas Lönnell</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>David Åhlén, daniela guasconi</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
+          <t>Skogsstyrelsens naturvärdesobjekt</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67724289</v>
+        <v>4977200</v>
       </c>
       <c r="B6" t="n">
-        <v>4717</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1214,46 +1233,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102306</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Färjestaden, Upl</t>
+          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>656838.9521214096</v>
+        <v>656935.9516979057</v>
       </c>
       <c r="R6" t="n">
-        <v>6585508.757694784</v>
+        <v>6585461.771711471</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1277,7 +1287,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1287,7 +1297,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1297,7 +1307,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Gnagspår i barken på gran</t>
+          <t>100872061 / HEPA NOB / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1308,31 +1318,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>David Åhlén</t>
+          <t>Niklas Lönnell</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>David Åhlén, daniela guasconi</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
+          <t>Skogsstyrelsens naturvärdesobjekt</t>
         </is>
       </c>
     </row>

--- a/artfynd/A 13237-2023.xlsx
+++ b/artfynd/A 13237-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67725248</v>
+        <v>1619901</v>
       </c>
       <c r="B2" t="n">
         <v>89412</v>
@@ -714,25 +714,19 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Färjestaden, Upl</t>
+          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>656881.9669087592</v>
+        <v>656935.9516979057</v>
       </c>
       <c r="R2" t="n">
-        <v>6585481.976062094</v>
+        <v>6585461.771711471</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -766,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Fruktkropp växande på tallstam</t>
+          <t>100872061 / PHE PINI / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -785,43 +779,32 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Vedartad växt</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Woody plant</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>David Åhlén</t>
+          <t>Niklas Lönnell</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>David Åhlén, daniela guasconi</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
+          <t>Skogsstyrelsens naturvärdesobjekt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67725234</v>
+        <v>4977200</v>
       </c>
       <c r="B3" t="n">
-        <v>89412</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -830,47 +813,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Färjestaden, Upl</t>
+          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>656785.5898451819</v>
+        <v>656935.9516979057</v>
       </c>
       <c r="R3" t="n">
-        <v>6585464.713498709</v>
+        <v>6585461.771711471</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +871,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -904,7 +881,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-08-16</t>
+          <t>1998-03-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -914,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar växande på tallstam</t>
+          <t>100872061 / HEPA NOB / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,43 +900,32 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Vedartad växt</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Woody plant</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>David Åhlén</t>
+          <t>Niklas Lönnell</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>David Åhlén, daniela guasconi</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
+          <t>Skogsstyrelsens naturvärdesobjekt</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67724289</v>
+        <v>67725248</v>
       </c>
       <c r="B4" t="n">
-        <v>4717</v>
+        <v>89412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -968,47 +934,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102306</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Färjestaden, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>656838.9521214096</v>
+        <v>656881.9669087592</v>
       </c>
       <c r="R4" t="n">
-        <v>6585508.757694784</v>
+        <v>6585481.976062094</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1055,7 +1018,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Gnagspår i barken på gran</t>
+          <t>Fruktkropp växande på tallstam</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1064,17 +1027,18 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Vedartad växt</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Bark on living woody plant</t>
+          <t>Woody plant</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1096,7 +1060,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1619901</v>
+        <v>67725234</v>
       </c>
       <c r="B5" t="n">
         <v>89412</v>
@@ -1130,19 +1094,25 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
+          <t>Färjestaden, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>656935.9516979057</v>
+        <v>656785.5898451819</v>
       </c>
       <c r="R5" t="n">
-        <v>6585461.771711471</v>
+        <v>6585464.713498709</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1166,7 +1136,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1176,7 +1146,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1186,7 +1156,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>100872061 / PHE PINI / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
+          <t>Flera fruktkroppar växande på tallstam</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1195,32 +1165,43 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Vedartad växt</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Woody plant</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Niklas Lönnell</t>
+          <t>David Åhlén</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>David Åhlén, daniela guasconi</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>Skogsstyrelsens naturvärdesobjekt</t>
+          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4977200</v>
+        <v>67724289</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>4717</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1233,37 +1214,46 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>300 M VNV FÄRJSTADEN (10I7c06), Upl</t>
+          <t>Färjestaden, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>656935.9516979057</v>
+        <v>656838.9521214096</v>
       </c>
       <c r="R6" t="n">
-        <v>6585461.771711471</v>
+        <v>6585508.757694784</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1287,7 +1277,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1297,7 +1287,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1998-03-06</t>
+          <t>2017-08-16</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1307,7 +1297,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>100872061 / HEPA NOB / Enstaka-sparsam (1)  / OBJ.AREA:6,1 ha</t>
+          <t>Gnagspår i barken på gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1318,21 +1308,31 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Niklas Lönnell</t>
+          <t>David Åhlén</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>David Åhlén, daniela guasconi</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>Skogsstyrelsens naturvärdesobjekt</t>
+          <t>LONA-projekt Markanvändningsöversikt Ekerö kommun</t>
         </is>
       </c>
     </row>
